--- a/libapi/src/main/resources/excel/StudentRecord.xlsx
+++ b/libapi/src/main/resources/excel/StudentRecord.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Thesis\thesisAn\src\main\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANG4HC\Documents\GitHub\Thesis\libapi\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D7677E-9C7F-4CB3-B724-A5BDC4E13B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE21178-77B8-4593-99B1-5D882F112A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1310" yWindow="1930" windowWidth="14400" windowHeight="7370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,19 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="114">
-  <si>
-    <t>Trường ĐH Quốc Tế - ĐHQG TP.HCM-Trường Đại học Quốc tế</t>
-  </si>
-  <si>
-    <t>Phòng Đào tạo Đại học</t>
-  </si>
-  <si>
-    <t>Tên môn học: Computer Graphics</t>
-  </si>
-  <si>
-    <t>Tên Giảng viên: Lê Duy Tân</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="41">
   <si>
     <t>STT</t>
   </si>
@@ -53,210 +41,105 @@
     <t>Mã SV</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>ITITIU19070</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>ITITIU19081</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>ITITIU19008</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>ITITIU19094</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>ITITIU18270</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>ITITIU19097</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>ITITIU19115</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>ITITIU18043</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>ITITIU19125</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>ITITIU20222</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>ITITIU19022</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>ITITIU19153</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>ITITIU19026</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>ITITIU19025</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>ITITIU18293</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>ITITIU19157</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>ITITIU19031</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>ITITIU19161</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>ITITIU19163</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>ITITIU19034</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
     <t>ITITIU20259</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>ITITIU19036</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>ITITIU19174</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>ITITWE19024</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>ITITIU19039</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
     <t>ITITIU19184</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>ITITIU19182</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
     <t>ITITIU19043</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
     <t>ITITIU17059</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>ITITIU19196</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
     <t>ITITIU19067</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>ITITWE19012</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
     <t>ITITIU18210</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
     <t>ITITUN21043</t>
   </si>
   <si>
@@ -269,119 +152,17 @@
     <t>A</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>STUDYING</t>
+    <t>Studying</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="13"/>
       <name val="Times New Roman"/>
@@ -513,12 +294,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -894,35 +669,26 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1280,611 +1046,523 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D45"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="32.3828125" customWidth="1"/>
-    <col min="5" max="5" width="10.69140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="D1" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-    </row>
-    <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="D5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="D6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="D8" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="D9" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="D10" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="D11" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="D12" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="D13" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="D14" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="D15" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="D17" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="D18" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="D19" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="D20" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="D21" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="D22" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="D23" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="D24" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+      <c r="D25" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="D26" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="D27" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="D28" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="D29" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="D30" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+      <c r="D31" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="D32" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+      <c r="D33" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="D34" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+      <c r="D35" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="6">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E34" s="8"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E35" s="8"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E36" s="8"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E39" s="8"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E40" s="8"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E41" s="8"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E42" s="8"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E43" s="8"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E44" s="8"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E45" s="8"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
+      <c r="D36" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A47:C47"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/libapi/src/main/resources/excel/StudentRecord.xlsx
+++ b/libapi/src/main/resources/excel/StudentRecord.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANG4HC\Documents\GitHub\Thesis\libapi\src\main\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Thesis\libapi\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE21178-77B8-4593-99B1-5D882F112A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CDC08D-CEA3-44D0-8492-ED2C6DA70D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1310" yWindow="1930" windowWidth="14400" windowHeight="7370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,14 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="43">
   <si>
     <t>STT</t>
   </si>
   <si>
-    <t>Mã SV</t>
-  </si>
-  <si>
     <t>ITITIU19070</t>
   </si>
   <si>
@@ -156,6 +153,15 @@
   </si>
   <si>
     <t>Studying</t>
+  </si>
+  <si>
+    <t>Reserved</t>
+  </si>
+  <si>
+    <t>Dropped</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -1048,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1062,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1076,13 +1082,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -1090,13 +1096,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1104,10 +1110,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>40</v>
@@ -1118,13 +1124,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -1132,13 +1138,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -1146,10 +1152,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>40</v>
@@ -1160,13 +1166,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -1174,13 +1180,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -1188,13 +1194,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -1202,10 +1208,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>40</v>
@@ -1216,13 +1222,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -1230,13 +1236,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -1244,13 +1250,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -1258,13 +1264,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -1272,13 +1278,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -1286,13 +1292,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -1300,13 +1306,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -1314,13 +1320,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -1328,13 +1334,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -1342,13 +1348,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -1356,13 +1362,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -1370,13 +1376,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -1384,13 +1390,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -1398,13 +1404,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -1412,13 +1418,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -1426,13 +1432,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -1440,13 +1446,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -1454,13 +1460,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -1468,13 +1474,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -1482,13 +1488,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -1496,13 +1502,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -1510,13 +1516,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -1524,13 +1530,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -1538,13 +1544,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -1552,13 +1558,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
